--- a/05_Entregable 3/maate_extra/MD_19_MAATE_recopilacion_Retenciones.xlsx
+++ b/05_Entregable 3/maate_extra/MD_19_MAATE_recopilacion_Retenciones.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco_F\!!Personal\Mio\1_WCS 2024\wcs\05_Entregable 3\maate_extra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAG\personal\consultorías\wcs\05_Entregable 3\maate_extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Metadatos generales" sheetId="1" r:id="rId1"/>
@@ -280,9 +280,6 @@
     <t>Nombre común del espécimen retenido</t>
   </si>
   <si>
-    <t>Estado del espécimen retenido</t>
-  </si>
-  <si>
     <t>Cantidad de especímenes/elementos constitutivos retenidos</t>
   </si>
   <si>
@@ -403,9 +400,6 @@
     <t>nombre_comun</t>
   </si>
   <si>
-    <t>estado_especimen</t>
-  </si>
-  <si>
     <t>nro_total</t>
   </si>
   <si>
@@ -578,6 +572,12 @@
   </si>
   <si>
     <t>A4:AM691</t>
+  </si>
+  <si>
+    <t>elemento_retenido</t>
+  </si>
+  <si>
+    <t>Tipo de elemento retenido</t>
   </si>
 </sst>
 </file>
@@ -987,7 +987,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1024,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1039,7 +1039,7 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1055,7 +1055,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1068,7 +1068,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1105,10 +1105,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="B6" sqref="B6"/>
-      <selection pane="topRight" activeCell="H40" sqref="H40"/>
+      <selection pane="topRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,10 +1125,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>10</v>
@@ -1154,7 +1154,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>67</v>
@@ -1169,7 +1169,7 @@
         <v>28</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H2" s="11"/>
     </row>
@@ -1178,7 +1178,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>68</v>
@@ -1187,16 +1187,16 @@
         <v>26</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1204,7 +1204,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>69</v>
@@ -1228,7 +1228,7 @@
         <v>52</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>52</v>
@@ -1252,7 +1252,7 @@
         <v>34</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>70</v>
@@ -1276,7 +1276,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>42</v>
@@ -1300,7 +1300,7 @@
         <v>53</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>71</v>
@@ -1315,7 +1315,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H8" s="11"/>
     </row>
@@ -1324,7 +1324,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>73</v>
@@ -1339,16 +1339,16 @@
         <v>6</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>74</v>
@@ -1363,7 +1363,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H10" s="11"/>
     </row>
@@ -1372,7 +1372,7 @@
         <v>54</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>72</v>
@@ -1387,7 +1387,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H11" s="11"/>
     </row>
@@ -1396,7 +1396,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>75</v>
@@ -1405,16 +1405,16 @@
         <v>26</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1422,7 +1422,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>76</v>
@@ -1431,16 +1431,16 @@
         <v>26</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1448,7 +1448,7 @@
         <v>56</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>77</v>
@@ -1463,7 +1463,7 @@
         <v>6</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H14" s="11"/>
     </row>
@@ -1472,7 +1472,7 @@
         <v>57</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>78</v>
@@ -1487,7 +1487,7 @@
         <v>6</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H15" s="11"/>
     </row>
@@ -1496,7 +1496,7 @@
         <v>58</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>79</v>
@@ -1511,7 +1511,7 @@
         <v>6</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H16" s="11"/>
     </row>
@@ -1520,7 +1520,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>80</v>
@@ -1529,7 +1529,7 @@
         <v>26</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>6</v>
@@ -1544,7 +1544,7 @@
         <v>39</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>81</v>
@@ -1553,7 +1553,7 @@
         <v>26</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>6</v>
@@ -1565,10 +1565,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>82</v>
@@ -1577,13 +1577,13 @@
         <v>26</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H19" s="11"/>
     </row>
@@ -1592,7 +1592,7 @@
         <v>59</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>83</v>
@@ -1607,7 +1607,7 @@
         <v>6</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H20" s="11"/>
     </row>
@@ -1616,22 +1616,22 @@
         <v>55</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H21" s="11"/>
     </row>
@@ -1640,10 +1640,10 @@
         <v>60</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>45</v>
@@ -1663,10 +1663,10 @@
         <v>61</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>45</v>
@@ -1681,7 +1681,7 @@
         <v>25000</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1689,16 +1689,16 @@
         <v>40</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>6</v>
@@ -1707,7 +1707,7 @@
         <v>49</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1715,10 +1715,10 @@
         <v>62</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>45</v>
@@ -1739,10 +1739,10 @@
         <v>63</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>45</v>
@@ -1763,10 +1763,10 @@
         <v>37</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>45</v>
@@ -1784,28 +1784,28 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1813,10 +1813,10 @@
         <v>58</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>27</v>
@@ -1828,19 +1828,19 @@
         <v>6</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>45</v>
@@ -1855,24 +1855,24 @@
         <v>0</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>6</v>
@@ -1887,16 +1887,16 @@
         <v>64</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>6</v>
@@ -1908,13 +1908,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>27</v>
@@ -1926,7 +1926,7 @@
         <v>6</v>
       </c>
       <c r="G33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H33" s="11"/>
     </row>
@@ -1935,34 +1935,34 @@
         <v>65</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H34" s="11"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>27</v>
@@ -1974,7 +1974,7 @@
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H35" s="11"/>
     </row>
@@ -1983,7 +1983,7 @@
         <v>66</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>41</v>
@@ -1998,7 +1998,7 @@
         <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H36" s="11"/>
     </row>
@@ -2007,10 +2007,10 @@
         <v>53</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>27</v>
@@ -2022,7 +2022,7 @@
         <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H37" s="11"/>
     </row>
@@ -2031,7 +2031,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>43</v>
@@ -2046,19 +2046,19 @@
         <v>6</v>
       </c>
       <c r="G38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H38" s="11"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>44</v>
@@ -2076,13 +2076,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>155</v>
-      </c>
       <c r="C40" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>27</v>
@@ -2094,10 +2094,10 @@
         <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
